--- a/DIZ4VX_0323/7gyak.xlsx
+++ b/DIZ4VX_0323/7gyak.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4505EA36-D583-4A71-AE5C-A48726FAC26B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D98671-E8A6-4631-88D3-03D7C0B332FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="46">
   <si>
     <t>FcFs</t>
   </si>
@@ -211,11 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -499,7 +500,7 @@
   <dimension ref="A1:BQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="AM35" sqref="AM35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,6 +2171,15 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -2209,8 +2219,8 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DIZ4VX_0323/7gyak.xlsx
+++ b/DIZ4VX_0323/7gyak.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D98671-E8A6-4631-88D3-03D7C0B332FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC2684D-FD07-4958-855F-390D8F128159}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>FcFs</t>
   </si>
@@ -499,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AM35" sqref="AM35"/>
     </sheetView>
   </sheetViews>
